--- a/face-2811/test.xlsx
+++ b/face-2811/test.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (1).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (1).jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (2).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (2).jpg</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -522,7 +522,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (3).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (3).jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (4).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (4).jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (5).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (5).jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (6).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (6).jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -614,7 +614,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (7).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (7).jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (8).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (8).jpg</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Dung\test-dung (9).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Dung\test-dung (9).jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (1).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (1).jpg</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -706,7 +706,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (10).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (10).jpg</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (11).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (11).jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -752,7 +752,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (12).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (12).jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (13).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (13).jpg</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (14).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (14).jpg</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (4).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (4).jpg</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (5).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (5).jpg</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (6).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (6).jpg</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (7).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (7).jpg</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (8).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (8).jpg</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -936,7 +936,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thang\test-thang (9).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thang\test-thang (9).jpg</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thanh\test-Thanh (1).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thanh\test-Thanh (1).jpg</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thanh\test-Thanh (2).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thanh\test-Thanh (2).jpg</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thanh\test-Thanh (3).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thanh\test-Thanh (3).jpg</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thanh\test-Thanh (4).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thanh\test-Thanh (4).jpg</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thanh\test-Thanh (5).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thanh\test-Thanh (5).jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C:\Users\ddung\Desktop\CODE_TTNT\face-2811\test\Thanh\test-Thanh (6).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\test\Thanh\test-Thanh (6).jpg</t>
         </is>
       </c>
       <c r="E28" t="n">
